--- a/rider/weekly/2016_51.xlsx
+++ b/rider/weekly/2016_51.xlsx
@@ -186,22 +186,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>268</c:v>
+                  <c:v>284</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>257</c:v>
+                  <c:v>227</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>204</c:v>
+                  <c:v>202</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>210</c:v>
+                  <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>95</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -256,22 +256,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>262.62</c:v>
+                  <c:v>269.62</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>228.12</c:v>
+                  <c:v>228.62</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>207.12</c:v>
+                  <c:v>197.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>231.43</c:v>
+                  <c:v>224.86</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>204.88</c:v>
+                  <c:v>211.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>122.56</c:v>
+                  <c:v>122.44</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -786,10 +786,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="D2">
-        <v>262.62</v>
+        <v>269.62</v>
       </c>
       <c r="E2">
         <v>96.25</v>
@@ -803,10 +803,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>257</v>
+        <v>227</v>
       </c>
       <c r="D3">
-        <v>228.12</v>
+        <v>228.62</v>
       </c>
       <c r="E3">
         <v>96.41</v>
@@ -820,10 +820,10 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D4">
-        <v>207.12</v>
+        <v>197.75</v>
       </c>
       <c r="E4">
         <v>96.56999999999999</v>
@@ -837,10 +837,10 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="D5">
-        <v>231.43</v>
+        <v>224.86</v>
       </c>
       <c r="E5">
         <v>96.73</v>
@@ -854,10 +854,10 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D6">
-        <v>204.88</v>
+        <v>211.25</v>
       </c>
       <c r="E6">
         <v>96.89</v>
@@ -871,10 +871,10 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D7">
-        <v>122.56</v>
+        <v>122.44</v>
       </c>
       <c r="E7">
         <v>97.06</v>
